--- a/data/trans_dic/P16A01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.07208542982276443</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06168742405545705</v>
+        <v>0.06168742405545706</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03993072894075966</v>
+        <v>0.03822328483066253</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07856233516342587</v>
+        <v>0.07750448445070121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04186656221793774</v>
+        <v>0.04271084930745561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04351202793968501</v>
+        <v>0.0432747938308899</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02859584337979967</v>
+        <v>0.02806190175920491</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06458290132125048</v>
+        <v>0.06558501087942142</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06524012976515176</v>
+        <v>0.06524372623680696</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05163297483700838</v>
+        <v>0.05110212134966233</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03660872385065599</v>
+        <v>0.03687459212663904</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07705658845195</v>
+        <v>0.07704652196424303</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05909516579967441</v>
+        <v>0.05945493367468062</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05100004471771627</v>
+        <v>0.05102334105260854</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07294306731434363</v>
+        <v>0.07224406715624376</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1265560072002899</v>
+        <v>0.1254220820014618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0784941229200332</v>
+        <v>0.07857347234617851</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07778815713876683</v>
+        <v>0.08123730370785122</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0580392554241577</v>
+        <v>0.05882828504851816</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1083923272663005</v>
+        <v>0.1104525994990779</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1076060331120262</v>
+        <v>0.1065946804479575</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08131321311829347</v>
+        <v>0.07986814140601926</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05963364199597679</v>
+        <v>0.05864137763184248</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1094016633212851</v>
+        <v>0.1088571175769498</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08907819967569301</v>
+        <v>0.08643115426869184</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07507683937774212</v>
+        <v>0.075174048047307</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.08453489643714633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07634691452055412</v>
+        <v>0.07634691452055413</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06028929539586395</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06166263861753462</v>
+        <v>0.06119656766240334</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05857009309555438</v>
+        <v>0.05748244124930086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06712920050003153</v>
+        <v>0.06805359575412091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05820814435396347</v>
+        <v>0.05767420408614715</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04636268995592743</v>
+        <v>0.04526001653086368</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06022426258527778</v>
+        <v>0.06039471853857749</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06640885694033954</v>
+        <v>0.06617467908516486</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07104109612479091</v>
+        <v>0.07110355361523973</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05844613153471766</v>
+        <v>0.05766365330693685</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0643265821354661</v>
+        <v>0.06333447219421089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0716090311796721</v>
+        <v>0.07111485602592781</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06924134865050986</v>
+        <v>0.0694750353989895</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0963758382308659</v>
+        <v>0.09740871244294218</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09133191215782367</v>
+        <v>0.09256195795193957</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1029843747116062</v>
+        <v>0.1039532934067653</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09711158844857502</v>
+        <v>0.09820239585077763</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07859439948383294</v>
+        <v>0.07684235907355731</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09556837595931654</v>
+        <v>0.09536512116167094</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1013266086059646</v>
+        <v>0.1025543437017413</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1036793307669959</v>
+        <v>0.104602123903672</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08254334419822837</v>
+        <v>0.08125615521106293</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08873107703053611</v>
+        <v>0.08819794895328364</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09763095623129399</v>
+        <v>0.09693941993286018</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09588772546368593</v>
+        <v>0.09688466556357025</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.06999718839857762</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.0627971546851786</v>
+        <v>0.06279715468517859</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.06758382730124524</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05129605645886496</v>
+        <v>0.05051965210468203</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08633407283470999</v>
+        <v>0.08589043214154556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05214327529837817</v>
+        <v>0.0514763064386567</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04598819369840077</v>
+        <v>0.04638542916710785</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04700888906358895</v>
+        <v>0.04950273115535567</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0592036992221921</v>
+        <v>0.05967875142129309</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05228454176645519</v>
+        <v>0.05447830733929483</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04883524530246965</v>
+        <v>0.04790038412314863</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05645128013513594</v>
+        <v>0.05476984244841982</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07832227517136146</v>
+        <v>0.07823937967141961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05604338824354865</v>
+        <v>0.05737795671322217</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05013361814112323</v>
+        <v>0.05117219400134537</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09157010265625774</v>
+        <v>0.09103814790434187</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1377543685034592</v>
+        <v>0.1369656643423185</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08795317654248208</v>
+        <v>0.08725709989586154</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08519682302621154</v>
+        <v>0.08787683545679777</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08503378869294208</v>
+        <v>0.08510852034321445</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09863184290808202</v>
+        <v>0.09925991172495988</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08911920822325457</v>
+        <v>0.09151398546482671</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0838224259064753</v>
+        <v>0.08048476438591402</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08284629510370849</v>
+        <v>0.08254550796273157</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1106411755697041</v>
+        <v>0.1096778216830327</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0829991306379617</v>
+        <v>0.08459399775900177</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07689686608544744</v>
+        <v>0.07734862870170239</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.09255654801714641</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08798545134306868</v>
+        <v>0.08798545134306866</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.07737291470705225</v>
@@ -1105,7 +1105,7 @@
         <v>0.09067915484068269</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08542064217494992</v>
+        <v>0.08542064217494993</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05652581861931703</v>
+        <v>0.0571337175038386</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08299962690212356</v>
+        <v>0.08335432168878669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0715382045817357</v>
+        <v>0.07238894015974902</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06174549838994386</v>
+        <v>0.06500570817747828</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06608097132297598</v>
+        <v>0.06767508071530917</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07596332484695781</v>
+        <v>0.07475277913930074</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0761310255224593</v>
+        <v>0.07534403731320069</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07400022681652726</v>
+        <v>0.07476367285773168</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0659684560503708</v>
+        <v>0.06497101685011394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08271406537811037</v>
+        <v>0.08414391499336715</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07921162819506228</v>
+        <v>0.07838296649825692</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0743177127030924</v>
+        <v>0.07528542575412323</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0888046274307337</v>
+        <v>0.0896123196955136</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1227853711379181</v>
+        <v>0.1243187792126609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.106031146527934</v>
+        <v>0.1094069689031339</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.101768355613116</v>
+        <v>0.1053181006082063</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1014323075473805</v>
+        <v>0.1022266442369212</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1114424496327958</v>
+        <v>0.1124987400000392</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1130887198046737</v>
+        <v>0.1117959650480903</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1025448716616374</v>
+        <v>0.1049703884937067</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08949204104191442</v>
+        <v>0.08943726660622237</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1115593555451378</v>
+        <v>0.1109259080609083</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.104567026937378</v>
+        <v>0.1056211984446316</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09862897523867561</v>
+        <v>0.09947122413395117</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.07693165230526061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07182481326029244</v>
+        <v>0.07182481326029246</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06424134627277592</v>
@@ -1229,7 +1229,7 @@
         <v>0.08330508377987707</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07726635649936379</v>
+        <v>0.07726635649936381</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06669004515213445</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06074742996258536</v>
+        <v>0.06104324235792345</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08448269044802401</v>
+        <v>0.08393275536988104</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06813111606989163</v>
+        <v>0.0679048757806479</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06223384258907049</v>
+        <v>0.06250445909584949</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0562150511440507</v>
+        <v>0.05595079355774964</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07423189396102153</v>
+        <v>0.07413946967333503</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07470695684611359</v>
+        <v>0.07444970132488976</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07000756374880836</v>
+        <v>0.070359969608863</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06078587985487535</v>
+        <v>0.06120673131518756</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08194149582237116</v>
+        <v>0.08228158885690666</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07387702151471137</v>
+        <v>0.07409874253600693</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0685061620694369</v>
+        <v>0.06883927116381014</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0785301469169319</v>
+        <v>0.0778587709875703</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1051432020606656</v>
+        <v>0.1052904342882797</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08687590321632312</v>
+        <v>0.08658024393870124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.081876357131572</v>
+        <v>0.0825952856185993</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07352302162972016</v>
+        <v>0.07263334112364482</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09306411132640596</v>
+        <v>0.09277523685175509</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09339693749472888</v>
+        <v>0.09391440770746225</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08654911351759706</v>
+        <v>0.08638419991258757</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07315267519894661</v>
+        <v>0.07349906509656892</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09687644174726529</v>
+        <v>0.09615215937684209</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08755408962427647</v>
+        <v>0.08710336339773458</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08116399358041072</v>
+        <v>0.08165411558834137</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27672</v>
+        <v>26489</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>55054</v>
+        <v>54312</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>28252</v>
+        <v>28821</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30054</v>
+        <v>29890</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>19684</v>
+        <v>19316</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>44779</v>
+        <v>45473</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37836</v>
+        <v>37447</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>50569</v>
+        <v>50937</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>107426</v>
+        <v>107412</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>79639</v>
+        <v>80124</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>72598</v>
+        <v>72631</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>50549</v>
+        <v>50065</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88686</v>
+        <v>87891</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>52968</v>
+        <v>53021</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>53729</v>
+        <v>56111</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>39951</v>
+        <v>40495</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>75154</v>
+        <v>76582</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>72402</v>
+        <v>71721</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>59585</v>
+        <v>58526</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>82375</v>
+        <v>81004</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>152518</v>
+        <v>151759</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>120045</v>
+        <v>116478</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>106871</v>
+        <v>107010</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>59307</v>
+        <v>58859</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>59621</v>
+        <v>58514</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>68635</v>
+        <v>69580</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>61056</v>
+        <v>60495</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>44897</v>
+        <v>43829</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>61829</v>
+        <v>62004</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>69259</v>
+        <v>69014</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>76074</v>
+        <v>76140</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>112812</v>
+        <v>111302</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>131522</v>
+        <v>129493</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>147897</v>
+        <v>146877</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>146775</v>
+        <v>147270</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>92694</v>
+        <v>93688</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>92971</v>
+        <v>94223</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>105294</v>
+        <v>106285</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>101862</v>
+        <v>103006</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>76110</v>
+        <v>74414</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>98115</v>
+        <v>97907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>105675</v>
+        <v>106955</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>111024</v>
+        <v>112012</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>159325</v>
+        <v>156840</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>181419</v>
+        <v>180329</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>201642</v>
+        <v>200213</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>203258</v>
+        <v>205372</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34805</v>
+        <v>34278</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>65315</v>
+        <v>64979</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39606</v>
+        <v>39099</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>36886</v>
+        <v>37205</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>32147</v>
+        <v>33852</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>45959</v>
+        <v>46328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>41044</v>
+        <v>42766</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>39600</v>
+        <v>38842</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>76906</v>
+        <v>74616</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>120054</v>
+        <v>119927</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>86563</v>
+        <v>88624</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>80865</v>
+        <v>82540</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>62131</v>
+        <v>61770</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>104216</v>
+        <v>103620</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66805</v>
+        <v>66276</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>68335</v>
+        <v>70485</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>58150</v>
+        <v>58201</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>76566</v>
+        <v>77054</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>69960</v>
+        <v>71839</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>67971</v>
+        <v>65265</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>112866</v>
+        <v>112456</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>169593</v>
+        <v>168116</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>128197</v>
+        <v>130661</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>124033</v>
+        <v>124762</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>53260</v>
+        <v>53833</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>78347</v>
+        <v>78681</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>67072</v>
+        <v>67869</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>61132</v>
+        <v>64360</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>68632</v>
+        <v>70288</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>79668</v>
+        <v>78398</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>79464</v>
+        <v>78643</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>82661</v>
+        <v>83513</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>130673</v>
+        <v>128697</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>164825</v>
+        <v>167674</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>156946</v>
+        <v>155304</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>156594</v>
+        <v>158633</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>83674</v>
+        <v>84435</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>115902</v>
+        <v>117349</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>99411</v>
+        <v>102576</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>100757</v>
+        <v>104271</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>105349</v>
+        <v>106174</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>116877</v>
+        <v>117985</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>118040</v>
+        <v>116690</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>114546</v>
+        <v>117255</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>177269</v>
+        <v>177160</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>222305</v>
+        <v>221042</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>207183</v>
+        <v>209272</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>207820</v>
+        <v>209595</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>198980</v>
+        <v>199949</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>288862</v>
+        <v>286982</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>231261</v>
+        <v>230493</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>219796</v>
+        <v>220752</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>189962</v>
+        <v>189069</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>263156</v>
+        <v>262828</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>264802</v>
+        <v>263890</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>261237</v>
+        <v>262552</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>404513</v>
+        <v>407314</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>570660</v>
+        <v>573028</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>512625</v>
+        <v>514163</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>497582</v>
+        <v>500002</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>257227</v>
+        <v>255028</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>359504</v>
+        <v>360008</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>294887</v>
+        <v>293884</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>289169</v>
+        <v>291708</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>248449</v>
+        <v>245442</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>329917</v>
+        <v>328893</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>331049</v>
+        <v>332884</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>322962</v>
+        <v>322347</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>486811</v>
+        <v>489116</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>674670</v>
+        <v>669626</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>607528</v>
+        <v>604401</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>589520</v>
+        <v>593080</v>
       </c>
     </row>
     <row r="24">
